--- a/mediawiki/extensions/ChemExtension/test/xlsx/data/testuv.xlsx
+++ b/mediawiki/extensions/ChemExtension/test/xlsx/data/testuv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\git\chemwiki\mediawiki\extensions\ChemExtension\maintenance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\git\chemwiki_143\mediawiki\extensions\ChemExtension\test\xlsx\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83342353-052D-4538-A5FC-EBC57C6CC1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2D575-CA95-4F48-AAA0-5BB7E90BC70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Solvent volume [ml]</t>
   </si>
   <si>
-    <t>Additives concentration [mM]</t>
-  </si>
-  <si>
     <t>Absorption Max [nm]</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Included</t>
-  </si>
-  <si>
     <t>BasePageName</t>
   </si>
   <si>
@@ -95,6 +89,12 @@
   </si>
   <si>
     <t>Additive test</t>
+  </si>
+  <si>
+    <t>Additives concentration [mM] &lt;additives conc&gt;</t>
+  </si>
+  <si>
+    <t>Included &lt;include&gt;</t>
   </si>
 </sst>
 </file>
@@ -444,12 +444,13 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -472,55 +473,55 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -528,10 +529,10 @@
         <v>7000</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -539,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
